--- a/public/login_parol27november.xlsx
+++ b/public/login_parol27november.xlsx
@@ -5835,13 +5835,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -5858,7 +5864,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -5887,10 +5900,10 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -7584,7 +7597,7 @@
         <v>343</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="22.5">
       <c r="A173" s="2" t="s">
         <v>344</v>
       </c>
@@ -7592,7 +7605,7 @@
         <v>345</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="22.5">
       <c r="A174" s="2" t="s">
         <v>346</v>
       </c>
@@ -7600,7 +7613,7 @@
         <v>347</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="22.5">
       <c r="A175" s="2" t="s">
         <v>348</v>
       </c>
@@ -7608,7 +7621,7 @@
         <v>349</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="22.5">
       <c r="A176" s="2" t="s">
         <v>350</v>
       </c>
@@ -7616,7 +7629,7 @@
         <v>351</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="22.5">
       <c r="A177" s="2" t="s">
         <v>352</v>
       </c>
@@ -7624,7 +7637,7 @@
         <v>353</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="22.5">
       <c r="A178" s="2" t="s">
         <v>354</v>
       </c>
@@ -7632,7 +7645,7 @@
         <v>355</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="22.5">
       <c r="A179" s="2" t="s">
         <v>356</v>
       </c>
@@ -7640,7 +7653,7 @@
         <v>357</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="22.5">
       <c r="A180" s="2" t="s">
         <v>358</v>
       </c>
@@ -7648,7 +7661,7 @@
         <v>359</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="22.5">
       <c r="A181" s="2" t="s">
         <v>360</v>
       </c>
@@ -7656,7 +7669,7 @@
         <v>361</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="22.5">
       <c r="A182" s="2" t="s">
         <v>362</v>
       </c>
@@ -7664,7 +7677,7 @@
         <v>363</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="22.5">
       <c r="A183" s="2" t="s">
         <v>364</v>
       </c>
@@ -7672,7 +7685,7 @@
         <v>365</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="22.5">
       <c r="A184" s="2" t="s">
         <v>366</v>
       </c>
@@ -7680,7 +7693,7 @@
         <v>367</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="22.5">
       <c r="A185" s="2" t="s">
         <v>368</v>
       </c>
@@ -7688,7 +7701,7 @@
         <v>369</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="22.5">
       <c r="A186" s="2" t="s">
         <v>370</v>
       </c>
@@ -7696,7 +7709,7 @@
         <v>371</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="22.5">
       <c r="A187" s="2" t="s">
         <v>372</v>
       </c>
@@ -7704,7 +7717,7 @@
         <v>373</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="22.5">
       <c r="A188" s="2" t="s">
         <v>374</v>
       </c>
@@ -7712,7 +7725,7 @@
         <v>375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="22.5">
       <c r="A189" s="2" t="s">
         <v>376</v>
       </c>
@@ -7720,7 +7733,7 @@
         <v>377</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="22.5">
       <c r="A190" s="2" t="s">
         <v>378</v>
       </c>
@@ -7728,7 +7741,7 @@
         <v>379</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="22.5">
       <c r="A191" s="2" t="s">
         <v>380</v>
       </c>
@@ -7736,7 +7749,7 @@
         <v>381</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="22.5">
       <c r="A192" s="2" t="s">
         <v>382</v>
       </c>
@@ -7744,7 +7757,7 @@
         <v>383</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="22.5">
       <c r="A193" s="2" t="s">
         <v>384</v>
       </c>
@@ -7752,7 +7765,7 @@
         <v>385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="22.5">
       <c r="A194" s="2" t="s">
         <v>386</v>
       </c>
@@ -7760,7 +7773,7 @@
         <v>387</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="22.5">
       <c r="A195" s="2" t="s">
         <v>388</v>
       </c>
@@ -7768,7 +7781,7 @@
         <v>389</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="22.5">
       <c r="A196" s="2" t="s">
         <v>390</v>
       </c>
@@ -7776,7 +7789,7 @@
         <v>391</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="22.5">
       <c r="A197" s="2" t="s">
         <v>392</v>
       </c>
